--- a/biology/Botanique/Hiëronymus_van_Beverninck/Hiëronymus_van_Beverninck.xlsx
+++ b/biology/Botanique/Hiëronymus_van_Beverninck/Hiëronymus_van_Beverninck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hi%C3%ABronymus_van_Beverninck</t>
+          <t>Hiëronymus_van_Beverninck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hiëronymus van Beverninck, (Jérôme van Beverninck, dit le Pacificateur), diplomate et botaniste hollandais (1614, Gouda - 1690).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hi%C3%ABronymus_van_Beverninck</t>
+          <t>Hiëronymus_van_Beverninck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Négociateur habile, il représenta les États généraux aux traités de Bréda, 1667, Aix-la-Chapelle, 1668 et Nimègue, 1678. Il se retira près de Leyde, et s'appliqua avec ardeur à l'étude de la botanique, dont il aida puissamment les progrès ; on lui doit l'introduction en Europe de la capucine à grandes feuilles, et un livre estimé sur les Plantes rares, Dantzig, 1678. Il entretenait un jardin dans lequel il avait notamment introduit l'azélée d'Inde (Azalea indica)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Négociateur habile, il représenta les États généraux aux traités de Bréda, 1667, Aix-la-Chapelle, 1668 et Nimègue, 1678. Il se retira près de Leyde, et s'appliqua avec ardeur à l'étude de la botanique, dont il aida puissamment les progrès ; on lui doit l'introduction en Europe de la capucine à grandes feuilles, et un livre estimé sur les Plantes rares, Dantzig, 1678. Il entretenait un jardin dans lequel il avait notamment introduit l'azélée d'Inde (Azalea indica).
 </t>
         </is>
       </c>
